--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>#config</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>./config/pay.xml</t>
+  </si>
+  <si>
+    <t>新玩家配置表</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>./config/player.xml</t>
   </si>
   <si>
     <t>进入游戏配置表</t>
@@ -347,8 +356,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -371,16 +380,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,42 +455,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,36 +492,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -481,17 +500,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,22 +529,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -566,67 +575,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,115 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,8 +787,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,6 +858,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -813,212 +881,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,10 +1494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1965,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="9" customFormat="1" spans="1:5">
+    <row r="29" s="8" customFormat="1" spans="1:5">
       <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
@@ -1979,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" s="9" customFormat="1" spans="1:5">
@@ -1999,32 +2008,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="1" spans="1:5">
-      <c r="A31" s="10" t="s">
+    <row r="31" s="9" customFormat="1" spans="1:5">
+      <c r="A31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1</v>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:5">
       <c r="A32" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
@@ -2035,13 +2044,13 @@
     </row>
     <row r="33" s="10" customFormat="1" spans="1:5">
       <c r="A33" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -2052,13 +2061,13 @@
     </row>
     <row r="34" s="10" customFormat="1" spans="1:5">
       <c r="A34" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
@@ -2069,10 +2078,10 @@
     </row>
     <row r="35" s="10" customFormat="1" spans="1:5">
       <c r="A35" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>97</v>
@@ -2132,6 +2141,23 @@
         <v>1</v>
       </c>
       <c r="E38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="1" spans="1:5">
+      <c r="A39" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
   <si>
     <t>#config</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>./config/drop.xml</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>./config/element.xml</t>
   </si>
   <si>
     <t>道具配置表</t>
@@ -356,8 +362,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -394,12 +400,127 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -414,121 +535,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -587,13 +593,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,157 +749,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,6 +808,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -813,17 +834,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,41 +873,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,148 +892,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1494,10 +1500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2025,32 +2031,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="10" customFormat="1" spans="1:5">
-      <c r="A32" s="10" t="s">
+    <row r="32" s="9" customFormat="1" spans="1:5">
+      <c r="A32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1</v>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:5">
       <c r="A33" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -2061,13 +2067,13 @@
     </row>
     <row r="34" s="10" customFormat="1" spans="1:5">
       <c r="A34" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
@@ -2078,13 +2084,13 @@
     </row>
     <row r="35" s="10" customFormat="1" spans="1:5">
       <c r="A35" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
@@ -2095,13 +2101,13 @@
     </row>
     <row r="36" s="10" customFormat="1" spans="1:5">
       <c r="A36" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
@@ -2112,13 +2118,13 @@
     </row>
     <row r="37" s="10" customFormat="1" spans="1:5">
       <c r="A37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
@@ -2129,13 +2135,13 @@
     </row>
     <row r="38" s="10" customFormat="1" spans="1:5">
       <c r="A38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="D38" s="10">
         <v>1</v>
@@ -2146,18 +2152,35 @@
     </row>
     <row r="39" s="10" customFormat="1" spans="1:5">
       <c r="A39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" s="10" customFormat="1" spans="1:5">
+      <c r="A40" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="B40" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>#config</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>./config/drop.xml</t>
+  </si>
+  <si>
+    <t>元素配置表</t>
   </si>
   <si>
     <t>element</t>
@@ -360,10 +363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -386,37 +389,94 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,7 +489,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,99 +538,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -581,13 +584,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,49 +674,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,13 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,96 +765,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,6 +789,71 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,218 +890,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1503,7 +1506,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2033,13 +2036,13 @@
     </row>
     <row r="32" s="9" customFormat="1" spans="1:5">
       <c r="A32" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
@@ -2050,13 +2053,13 @@
     </row>
     <row r="33" s="10" customFormat="1" spans="1:5">
       <c r="A33" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -2067,13 +2070,13 @@
     </row>
     <row r="34" s="10" customFormat="1" spans="1:5">
       <c r="A34" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
@@ -2084,13 +2087,13 @@
     </row>
     <row r="35" s="10" customFormat="1" spans="1:5">
       <c r="A35" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
@@ -2101,13 +2104,13 @@
     </row>
     <row r="36" s="10" customFormat="1" spans="1:5">
       <c r="A36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
@@ -2118,13 +2121,13 @@
     </row>
     <row r="37" s="10" customFormat="1" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
@@ -2135,13 +2138,13 @@
     </row>
     <row r="38" s="10" customFormat="1" spans="1:5">
       <c r="A38" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38" s="10">
         <v>1</v>
@@ -2152,13 +2155,13 @@
     </row>
     <row r="39" s="10" customFormat="1" spans="1:5">
       <c r="A39" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D39" s="10">
         <v>1</v>
@@ -2169,13 +2172,13 @@
     </row>
     <row r="40" s="10" customFormat="1" spans="1:5">
       <c r="A40" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>#config</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>./config/element.xml</t>
+  </si>
+  <si>
+    <t>道具类型配置表</t>
+  </si>
+  <si>
+    <t>itemtype</t>
+  </si>
+  <si>
+    <t>./config/itemtype.xml</t>
   </si>
   <si>
     <t>道具配置表</t>
@@ -389,37 +398,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,9 +426,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,35 +455,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,21 +480,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,12 +525,28 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -584,13 +593,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,169 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,17 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -819,21 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -845,15 +828,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,153 +864,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1503,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2070,13 +2079,13 @@
     </row>
     <row r="34" s="10" customFormat="1" spans="1:5">
       <c r="A34" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
@@ -2087,44 +2096,44 @@
     </row>
     <row r="35" s="10" customFormat="1" spans="1:5">
       <c r="A35" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
       </c>
       <c r="E35" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:5">
       <c r="A36" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
       </c>
       <c r="E36" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" s="10" customFormat="1" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>103</v>
@@ -2133,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" s="10" customFormat="1" spans="1:5">
@@ -2150,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" s="10" customFormat="1" spans="1:5">
@@ -2184,6 +2193,23 @@
         <v>1</v>
       </c>
       <c r="E40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" s="10" customFormat="1" spans="1:5">
+      <c r="A41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
   <si>
     <t>#config</t>
   </si>
@@ -289,10 +289,19 @@
     <t>掉落配置表</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>./config/drop.xml</t>
+    <t>dropgroup</t>
+  </si>
+  <si>
+    <t>./config/dropgroup.xml</t>
+  </si>
+  <si>
+    <t>掉落数据表</t>
+  </si>
+  <si>
+    <t>dropdata</t>
+  </si>
+  <si>
+    <t>./config/dropdata.xml</t>
   </si>
   <si>
     <t>元素配置表</t>
@@ -373,8 +382,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -398,7 +407,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -412,44 +487,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,62 +518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,9 +534,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,187 +602,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,6 +811,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -817,26 +850,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,16 +875,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,168 +908,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1512,10 +1521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A43" sqref="$A43:$XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2060,21 +2069,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="1" spans="1:5">
-      <c r="A33" s="10" t="s">
+    <row r="33" s="9" customFormat="1" spans="1:5">
+      <c r="A33" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>1</v>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="34" s="10" customFormat="1" spans="1:5">
@@ -2096,30 +2105,30 @@
     </row>
     <row r="35" s="10" customFormat="1" spans="1:5">
       <c r="A35" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
       </c>
       <c r="E35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:5">
       <c r="A36" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
@@ -2130,13 +2139,13 @@
     </row>
     <row r="37" s="10" customFormat="1" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
@@ -2147,10 +2156,10 @@
     </row>
     <row r="38" s="10" customFormat="1" spans="1:5">
       <c r="A38" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>106</v>
@@ -2176,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" s="10" customFormat="1" spans="1:5">
@@ -2210,6 +2219,23 @@
         <v>1</v>
       </c>
       <c r="E41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" s="10" customFormat="1" spans="1:5">
+      <c r="A42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
   <si>
     <t>#config</t>
   </si>
@@ -332,12 +332,6 @@
   </si>
   <si>
     <t>./config/itemgift.xml</t>
-  </si>
-  <si>
-    <t>./config/itemequip.xml</t>
-  </si>
-  <si>
-    <t>./config/itemmedicine.xml</t>
   </si>
   <si>
     <t>权重配置表</t>
@@ -381,9 +375,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -414,9 +408,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,21 +437,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,7 +476,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,63 +521,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,9 +543,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,79 +596,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,102 +777,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,8 +808,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,6 +825,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,30 +894,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -899,162 +902,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1521,10 +1515,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="$A43:$XFD44"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2139,13 +2133,13 @@
     </row>
     <row r="37" s="10" customFormat="1" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
@@ -2156,86 +2150,52 @@
     </row>
     <row r="38" s="10" customFormat="1" spans="1:5">
       <c r="A38" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D38" s="10">
         <v>1</v>
       </c>
       <c r="E38" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" s="10" customFormat="1" spans="1:5">
       <c r="A39" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D39" s="10">
         <v>1</v>
       </c>
       <c r="E39" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" s="10" customFormat="1" spans="1:5">
       <c r="A40" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
       </c>
       <c r="E40" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" s="10" customFormat="1" spans="1:5">
-      <c r="A41" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="10">
-        <v>1</v>
-      </c>
-      <c r="E41" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" s="10" customFormat="1" spans="1:5">
-      <c r="A42" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="10">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>#config</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>./config/player.xml</t>
+  </si>
+  <si>
+    <t>时间配置表</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>./config/time.xml</t>
   </si>
   <si>
     <t>进入游戏配置表</t>
@@ -376,8 +385,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -401,7 +410,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,13 +448,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,20 +461,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -451,24 +469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,15 +478,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,7 +501,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,22 +545,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,15 +554,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,187 +605,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,6 +824,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -834,6 +869,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,194 +911,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1515,10 +1524,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2012,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="9" customFormat="1" spans="1:5">
+    <row r="30" s="8" customFormat="1" spans="1:5">
       <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" s="9" customFormat="1" spans="1:5">
@@ -2080,21 +2089,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="10" customFormat="1" spans="1:5">
-      <c r="A34" s="10" t="s">
+    <row r="34" s="9" customFormat="1" spans="1:5">
+      <c r="A34" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="10">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="35" s="10" customFormat="1" spans="1:5">
@@ -2116,27 +2125,27 @@
     </row>
     <row r="36" s="10" customFormat="1" spans="1:5">
       <c r="A36" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
       </c>
       <c r="E36" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" s="10" customFormat="1" spans="1:5">
       <c r="A37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>107</v>
@@ -2162,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" s="10" customFormat="1" spans="1:5">
@@ -2196,6 +2205,23 @@
         <v>1</v>
       </c>
       <c r="E40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" s="10" customFormat="1" spans="1:5">
+      <c r="A41" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>#config</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>./setting/robot.xml</t>
+  </si>
+  <si>
+    <t>转发配置表</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>./config/route.xml</t>
   </si>
   <si>
     <t>渠道配置表</t>
@@ -384,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -410,32 +419,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,66 +435,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,15 +454,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,6 +495,73 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -605,19 +614,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,163 +764,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,9 +825,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,11 +866,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,30 +893,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,148 +925,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1524,10 +1533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1783,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="1" spans="1:5">
+    <row r="16" s="8" customFormat="1" spans="1:5">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -1814,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="8" customFormat="1" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="1" spans="1:5">
       <c r="A18" s="9" t="s">
         <v>50</v>
       </c>
@@ -1831,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="1" spans="1:5">
@@ -2038,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="9" customFormat="1" spans="1:5">
+    <row r="31" s="8" customFormat="1" spans="1:5">
       <c r="A31" s="9" t="s">
         <v>89</v>
       </c>
@@ -2052,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" s="9" customFormat="1" spans="1:5">
@@ -2106,21 +2115,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="10" customFormat="1" spans="1:5">
-      <c r="A35" s="10" t="s">
+    <row r="35" s="9" customFormat="1" spans="1:5">
+      <c r="A35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1</v>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:5">
@@ -2142,27 +2151,27 @@
     </row>
     <row r="37" s="10" customFormat="1" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
       </c>
       <c r="E37" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" s="10" customFormat="1" spans="1:5">
       <c r="A38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>110</v>
@@ -2188,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" s="10" customFormat="1" spans="1:5">
@@ -2222,6 +2231,23 @@
         <v>1</v>
       </c>
       <c r="E41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" s="10" customFormat="1" spans="1:5">
+      <c r="A42" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="130">
   <si>
     <t>#config</t>
   </si>
@@ -28,6 +28,9 @@
     <t>服务器变量id</t>
   </si>
   <si>
+    <t>配置名</t>
+  </si>
+  <si>
     <t>配置文件名</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>Id(string)</t>
   </si>
   <si>
+    <t>Name(string)</t>
+  </si>
+  <si>
     <t>FileName(string)</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>http</t>
   </si>
   <si>
+    <t>httpserver</t>
+  </si>
+  <si>
     <t>./setting/httpserver.xml</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
     <t>tcp</t>
   </si>
   <si>
+    <t>tcpserver</t>
+  </si>
+  <si>
     <t>./setting/tcpserver.xml</t>
   </si>
   <si>
@@ -346,9 +358,15 @@
     <t>item</t>
   </si>
   <si>
+    <t>itemcommon</t>
+  </si>
+  <si>
     <t>./config/itemcommon.xml</t>
   </si>
   <si>
+    <t>itemgift</t>
+  </si>
+  <si>
     <t>./config/itemgift.xml</t>
   </si>
   <si>
@@ -356,6 +374,9 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>weightpool</t>
   </si>
   <si>
     <t>./config/weightpool.xml</t>
@@ -393,9 +414,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -419,14 +440,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,7 +454,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +475,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -462,33 +498,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,37 +527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,11 +553,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -614,49 +635,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,127 +815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,32 +840,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,11 +868,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,177 +941,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1533,19 +1554,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="11" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="11"/>
+    <col min="2" max="3" width="14.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="17.125" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
@@ -1554,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+    <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1570,8 +1591,11 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1587,667 +1611,787 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:5">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:5">
+      <c r="E4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:5">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:5">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:5">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:5">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:5">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:5">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="1:5">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" s="6" customFormat="1" spans="1:5">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" s="7" customFormat="1" spans="1:5">
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" s="8" customFormat="1" spans="1:5">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" s="8" customFormat="1" spans="1:5">
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" s="9" customFormat="1" spans="1:5">
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="9" customFormat="1" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" s="9" customFormat="1" spans="1:5">
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="1" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" spans="1:5">
+    <row r="19" s="8" customFormat="1" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" s="8" customFormat="1" spans="1:5">
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" s="8" customFormat="1" spans="1:5">
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E21" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" s="8" customFormat="1" spans="1:5">
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" s="8" customFormat="1" spans="1:5">
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" s="8" customFormat="1" spans="1:5">
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" s="8" customFormat="1" spans="1:5">
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E25" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" s="8" customFormat="1" spans="1:5">
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" s="8" customFormat="1" spans="1:5">
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="8" customFormat="1" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="E27" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" s="8" customFormat="1" spans="1:5">
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="8" customFormat="1" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="9">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" s="8" customFormat="1" spans="1:5">
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" s="8" customFormat="1" spans="1:5">
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="9">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" s="8" customFormat="1" spans="1:5">
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="E31" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" s="9" customFormat="1" spans="1:5">
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" s="9" customFormat="1" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="9" customFormat="1" spans="1:5">
+    <row r="33" s="9" customFormat="1" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="9">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" s="9" customFormat="1" spans="1:6">
+      <c r="A34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="1" spans="1:6">
+      <c r="A35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" s="10" customFormat="1" spans="1:6">
+      <c r="A36" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" s="10" customFormat="1" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:6">
+      <c r="A38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="9" customFormat="1" spans="1:5">
-      <c r="A34" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9">
+    <row r="39" s="10" customFormat="1" spans="1:6">
+      <c r="A39" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" spans="1:5">
-      <c r="A35" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="10" customFormat="1" spans="1:5">
-      <c r="A36" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" s="10" customFormat="1" spans="1:5">
-      <c r="A37" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" s="10" customFormat="1" spans="1:5">
-      <c r="A38" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" s="10" customFormat="1" spans="1:5">
-      <c r="A39" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" s="10" customFormat="1" spans="1:5">
+    <row r="40" s="10" customFormat="1" spans="1:6">
       <c r="A40" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" s="10" customFormat="1" spans="1:5">
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" s="10" customFormat="1" spans="1:6">
       <c r="A41" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="10">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="E41" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" s="10" customFormat="1" spans="1:5">
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" s="10" customFormat="1" spans="1:6">
       <c r="A42" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="10">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="138">
   <si>
     <t>#config</t>
   </si>
@@ -40,6 +40,9 @@
     <t>是否需要清空数据</t>
   </si>
   <si>
+    <t>按文件清空数据</t>
+  </si>
+  <si>
     <t>Description(string)</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>ClearData(int)</t>
   </si>
   <si>
+    <t>ClearFile(int)</t>
+  </si>
+  <si>
     <t>redis数据库配置表</t>
   </si>
   <si>
@@ -341,6 +347,24 @@
   </si>
   <si>
     <t>./config/element.xml</t>
+  </si>
+  <si>
+    <t>条件定义配置</t>
+  </si>
+  <si>
+    <t>conditiondefine</t>
+  </si>
+  <si>
+    <t>./config/conditiondefine.xml</t>
+  </si>
+  <si>
+    <t>条件配置</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>./config/condition.xml</t>
   </si>
   <si>
     <t>道具类型配置表</t>
@@ -414,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -440,9 +464,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,15 +492,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,30 +554,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,25 +577,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,6 +599,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -573,22 +613,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -635,187 +659,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,26 +868,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +903,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,15 +951,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -926,168 +965,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1554,19 +1578,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.5" style="11" customWidth="1"/>
-    <col min="2" max="3" width="14.875" style="11" customWidth="1"/>
+    <col min="2" max="3" width="17.125" style="11" customWidth="1"/>
     <col min="4" max="4" width="32.625" style="11" customWidth="1"/>
-    <col min="5" max="6" width="17.125" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="5" max="7" width="17.125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
@@ -1575,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+    <row r="2" s="2" customFormat="1" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1594,8 +1618,11 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1614,39 +1641,45 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1654,19 +1687,22 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:6">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1674,19 +1710,22 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:6">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1694,19 +1733,22 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:6">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1714,19 +1756,22 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:6">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:7">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -1734,19 +1779,22 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:6">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1754,19 +1802,22 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:6">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1774,19 +1825,22 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="1:6">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1794,19 +1848,22 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" s="6" customFormat="1" spans="1:6">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:7">
       <c r="A13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -1814,19 +1871,22 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" s="7" customFormat="1" spans="1:6">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="1:7">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1834,19 +1894,22 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" s="8" customFormat="1" spans="1:6">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
@@ -1854,19 +1917,22 @@
       <c r="F15" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" s="8" customFormat="1" spans="1:6">
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
@@ -1874,19 +1940,22 @@
       <c r="F16" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" s="9" customFormat="1" spans="1:6">
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="9" customFormat="1" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
@@ -1894,19 +1963,22 @@
       <c r="F17" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" s="9" customFormat="1" spans="1:6">
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="1" spans="1:7">
       <c r="A18" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
@@ -1914,19 +1986,22 @@
       <c r="F18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" s="8" customFormat="1" spans="1:6">
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
@@ -1934,19 +2009,22 @@
       <c r="F19" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" s="8" customFormat="1" spans="1:6">
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -1954,19 +2032,22 @@
       <c r="F20" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" s="8" customFormat="1" spans="1:6">
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21" s="9">
         <v>1</v>
@@ -1974,19 +2055,22 @@
       <c r="F21" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" s="8" customFormat="1" spans="1:6">
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
@@ -1994,19 +2078,22 @@
       <c r="F22" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" s="8" customFormat="1" spans="1:6">
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
@@ -2014,19 +2101,22 @@
       <c r="F23" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" s="8" customFormat="1" spans="1:6">
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
@@ -2034,19 +2124,22 @@
       <c r="F24" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" s="8" customFormat="1" spans="1:6">
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="1:7">
       <c r="A25" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E25" s="9">
         <v>1</v>
@@ -2054,19 +2147,22 @@
       <c r="F25" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" s="8" customFormat="1" spans="1:6">
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
@@ -2074,19 +2170,22 @@
       <c r="F26" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" s="8" customFormat="1" spans="1:6">
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="8" customFormat="1" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" s="9">
         <v>1</v>
@@ -2094,19 +2193,22 @@
       <c r="F27" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" s="8" customFormat="1" spans="1:6">
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="8" customFormat="1" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
@@ -2114,19 +2216,22 @@
       <c r="F28" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" s="8" customFormat="1" spans="1:6">
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
@@ -2134,19 +2239,22 @@
       <c r="F29" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" s="8" customFormat="1" spans="1:6">
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
@@ -2154,19 +2262,22 @@
       <c r="F30" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" s="8" customFormat="1" spans="1:6">
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:7">
       <c r="A31" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E31" s="9">
         <v>1</v>
@@ -2174,19 +2285,22 @@
       <c r="F31" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" s="9" customFormat="1" spans="1:6">
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="9" customFormat="1" spans="1:7">
       <c r="A32" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
@@ -2194,19 +2308,22 @@
       <c r="F32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" s="9" customFormat="1" spans="1:6">
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="9" customFormat="1" spans="1:7">
       <c r="A33" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E33" s="9">
         <v>1</v>
@@ -2214,19 +2331,22 @@
       <c r="F33" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" s="9" customFormat="1" spans="1:6">
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="9" customFormat="1" spans="1:7">
       <c r="A34" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
@@ -2234,19 +2354,22 @@
       <c r="F34" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" s="9" customFormat="1" spans="1:6">
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="1" spans="1:7">
       <c r="A35" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E35" s="9">
         <v>1</v>
@@ -2254,145 +2377,215 @@
       <c r="F35" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" s="10" customFormat="1" spans="1:6">
-      <c r="A36" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="1" spans="1:7">
+      <c r="A36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" s="10" customFormat="1" spans="1:6">
-      <c r="A37" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="9" customFormat="1" spans="1:7">
+      <c r="A37" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" s="10" customFormat="1" spans="1:6">
+      <c r="C37" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:7">
       <c r="A38" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E38" s="10">
         <v>1</v>
       </c>
       <c r="F38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" s="10" customFormat="1" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="1" spans="1:7">
       <c r="A39" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="10" customFormat="1" spans="1:7">
+      <c r="A40" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="10">
-        <v>1</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" s="10" customFormat="1" spans="1:6">
-      <c r="A40" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="C40" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
       </c>
       <c r="F40" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" s="10" customFormat="1" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="10" customFormat="1" spans="1:7">
       <c r="A41" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E41" s="10">
         <v>1</v>
       </c>
       <c r="F41" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" s="10" customFormat="1" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="10" customFormat="1" spans="1:7">
       <c r="A42" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E42" s="10">
         <v>1</v>
       </c>
       <c r="F42" s="10">
         <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="10" customFormat="1" spans="1:7">
+      <c r="A43" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="10" customFormat="1" spans="1:7">
+      <c r="A44" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="143">
   <si>
     <t>#config</t>
   </si>
@@ -43,6 +43,9 @@
     <t>按文件清空数据</t>
   </si>
   <si>
+    <t>子文件是否重读</t>
+  </si>
+  <si>
     <t>Description(string)</t>
   </si>
   <si>
@@ -64,6 +67,18 @@
     <t>ClearFile(int)</t>
   </si>
   <si>
+    <t>ChildFile(int)</t>
+  </si>
+  <si>
+    <t>项目配置配置表</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>./setting/project.xml</t>
+  </si>
+  <si>
     <t>redis数据库配置表</t>
   </si>
   <si>
@@ -151,6 +166,15 @@
     <t>./setting/datashard.xml</t>
   </si>
   <si>
+    <t>转发配置</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>./setting/route.xml</t>
+  </si>
+  <si>
     <t>机器人配置表</t>
   </si>
   <si>
@@ -160,15 +184,6 @@
     <t>./setting/robot.xml</t>
   </si>
   <si>
-    <t>转发配置表</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>./config/route.xml</t>
-  </si>
-  <si>
     <t>渠道配置表</t>
   </si>
   <si>
@@ -367,15 +382,6 @@
     <t>./config/condition.xml</t>
   </si>
   <si>
-    <t>道具类型配置表</t>
-  </si>
-  <si>
-    <t>itemtype</t>
-  </si>
-  <si>
-    <t>./config/itemtype.xml</t>
-  </si>
-  <si>
     <t>道具配置表</t>
   </si>
   <si>
@@ -431,6 +437,15 @@
   </si>
   <si>
     <t>./config/match.xml</t>
+  </si>
+  <si>
+    <t>奖励配置表</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>./config/reward.xml</t>
   </si>
 </sst>
 </file>
@@ -439,8 +454,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -471,7 +486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,9 +507,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,31 +522,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,17 +537,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,8 +566,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,15 +605,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,7 +623,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,6 +674,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -671,175 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,6 +886,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -878,16 +902,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,30 +948,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -945,23 +960,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,10 +988,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,133 +1000,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,19 +1593,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.5" style="11" customWidth="1"/>
     <col min="2" max="3" width="17.125" style="11" customWidth="1"/>
     <col min="4" max="4" width="32.625" style="11" customWidth="1"/>
     <col min="5" max="7" width="17.125" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="11"/>
+    <col min="8" max="8" width="16" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
@@ -1599,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
+    <row r="2" s="2" customFormat="1" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1621,8 +1637,11 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1644,42 +1663,48 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:7">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1690,19 +1715,22 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:7">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1713,19 +1741,22 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:7">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1736,19 +1767,22 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:7">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1759,65 +1793,74 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:8">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" spans="1:8">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:7">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1828,19 +1871,22 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="1:7">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1851,42 +1897,48 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" s="6" customFormat="1" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="1:8">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>0</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" s="7" customFormat="1" spans="1:7">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="1" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1897,65 +1949,74 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" s="8" customFormat="1" spans="1:7">
-      <c r="A15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="6" customFormat="1" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="8" customFormat="1" spans="1:7">
-      <c r="A16" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="7" customFormat="1" spans="1:8">
+      <c r="A16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="9" customFormat="1" spans="1:7">
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
@@ -1966,65 +2027,74 @@
       <c r="G17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" s="9" customFormat="1" spans="1:7">
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="1" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" s="8" customFormat="1" spans="1:7">
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="9" customFormat="1" spans="1:8">
       <c r="A19" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
       </c>
       <c r="F19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" s="8" customFormat="1" spans="1:7">
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:8">
       <c r="A20" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -2035,19 +2105,22 @@
       <c r="G20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" s="8" customFormat="1" spans="1:7">
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="1:8">
       <c r="A21" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" s="9">
         <v>1</v>
@@ -2058,19 +2131,22 @@
       <c r="G21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" s="8" customFormat="1" spans="1:7">
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="1:8">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
@@ -2081,19 +2157,22 @@
       <c r="G22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" s="8" customFormat="1" spans="1:7">
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="1:8">
       <c r="A23" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
@@ -2104,19 +2183,22 @@
       <c r="G23" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" s="8" customFormat="1" spans="1:7">
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:8">
       <c r="A24" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
@@ -2127,19 +2209,22 @@
       <c r="G24" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" s="8" customFormat="1" spans="1:7">
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="1:8">
       <c r="A25" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25" s="9">
         <v>1</v>
@@ -2150,19 +2235,22 @@
       <c r="G25" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" s="8" customFormat="1" spans="1:7">
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="1:8">
       <c r="A26" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
@@ -2173,19 +2261,22 @@
       <c r="G26" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" s="8" customFormat="1" spans="1:7">
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="8" customFormat="1" spans="1:8">
       <c r="A27" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E27" s="9">
         <v>1</v>
@@ -2196,19 +2287,22 @@
       <c r="G27" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" s="8" customFormat="1" spans="1:7">
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="8" customFormat="1" spans="1:8">
       <c r="A28" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
@@ -2219,19 +2313,22 @@
       <c r="G28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" s="8" customFormat="1" spans="1:7">
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="1:8">
       <c r="A29" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
@@ -2242,19 +2339,22 @@
       <c r="G29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" s="8" customFormat="1" spans="1:7">
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="1:8">
       <c r="A30" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
@@ -2265,19 +2365,22 @@
       <c r="G30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" s="8" customFormat="1" spans="1:7">
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:8">
       <c r="A31" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E31" s="9">
         <v>1</v>
@@ -2288,65 +2391,74 @@
       <c r="G31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" s="9" customFormat="1" spans="1:7">
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:8">
       <c r="A32" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" s="9" customFormat="1" spans="1:7">
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="9" customFormat="1" spans="1:8">
       <c r="A33" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E33" s="9">
         <v>1</v>
       </c>
       <c r="F33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" s="9" customFormat="1" spans="1:7">
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="9" customFormat="1" spans="1:8">
       <c r="A34" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
@@ -2357,19 +2469,22 @@
       <c r="G34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" s="9" customFormat="1" spans="1:7">
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="1" spans="1:8">
       <c r="A35" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E35" s="9">
         <v>1</v>
@@ -2380,19 +2495,22 @@
       <c r="G35" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" s="9" customFormat="1" spans="1:7">
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="1" spans="1:8">
       <c r="A36" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
@@ -2403,19 +2521,22 @@
       <c r="G36" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" s="9" customFormat="1" spans="1:7">
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="9" customFormat="1" spans="1:8">
       <c r="A37" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E37" s="9">
         <v>1</v>
@@ -2426,65 +2547,74 @@
       <c r="G37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" s="10" customFormat="1" spans="1:7">
-      <c r="A38" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="9" customFormat="1" spans="1:8">
+      <c r="A38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="10">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" s="10" customFormat="1" spans="1:7">
+      <c r="B38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="1" spans="1:8">
       <c r="A39" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" s="10" customFormat="1" spans="1:8">
+      <c r="A40" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="10">
-        <v>1</v>
-      </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" s="10" customFormat="1" spans="1:7">
-      <c r="A40" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="C40" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
@@ -2495,19 +2625,22 @@
       <c r="G40" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" s="10" customFormat="1" spans="1:7">
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="10" customFormat="1" spans="1:8">
       <c r="A41" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E41" s="10">
         <v>1</v>
@@ -2518,19 +2651,22 @@
       <c r="G41" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" s="10" customFormat="1" spans="1:7">
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="10" customFormat="1" spans="1:8">
       <c r="A42" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E42" s="10">
         <v>1</v>
@@ -2541,19 +2677,22 @@
       <c r="G42" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" s="10" customFormat="1" spans="1:7">
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="10" customFormat="1" spans="1:8">
       <c r="A43" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E43" s="10">
         <v>1</v>
@@ -2564,19 +2703,22 @@
       <c r="G43" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" s="10" customFormat="1" spans="1:7">
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="10" customFormat="1" spans="1:8">
       <c r="A44" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E44" s="10">
         <v>1</v>
@@ -2585,6 +2727,35 @@
         <v>1</v>
       </c>
       <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="10" customFormat="1" spans="1:8">
+      <c r="A45" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/1000-框架-配置列表.xlsx
+++ b/Resource/excel/1000-框架-配置列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13140"/>
+    <workbookView windowWidth="26340" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="149">
   <si>
     <t>#config</t>
   </si>
@@ -446,6 +446,24 @@
   </si>
   <si>
     <t>./config/reward.xml</t>
+  </si>
+  <si>
+    <t>特效配置表</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>./config/effect.xml</t>
+  </si>
+  <si>
+    <t>脚印配置表</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>./config/foot.xml</t>
   </si>
 </sst>
 </file>
@@ -453,10 +471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -479,21 +497,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -507,45 +518,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,8 +548,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,15 +581,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,25 +623,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,6 +638,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -674,187 +692,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,11 +901,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,17 +940,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,185 +992,159 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1593,10 +1611,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2733,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="10" customFormat="1" spans="1:8">
+    <row r="45" s="10" customFormat="1" ht="14" customHeight="1" spans="1:8">
       <c r="A45" s="10" t="s">
         <v>140</v>
       </c>
@@ -2756,6 +2774,58 @@
         <v>0</v>
       </c>
       <c r="H45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="10" customFormat="1" spans="1:8">
+      <c r="A46" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="10" customFormat="1" spans="1:8">
+      <c r="A47" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
         <v>0</v>
       </c>
     </row>
